--- a/regdata.xlsx
+++ b/regdata.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="20">
   <si>
     <t>Name</t>
   </si>
@@ -56,6 +56,24 @@
   </si>
   <si>
     <t>7766</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>ff</t>
+  </si>
+  <si>
+    <t>miccu</t>
+  </si>
+  <si>
+    <t>rr</t>
+  </si>
+  <si>
+    <t>rr66</t>
+  </si>
+  <si>
+    <t>66</t>
   </si>
 </sst>
 </file>
@@ -441,7 +459,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
       <selection activeCell="B16" sqref="B16"/>
@@ -515,6 +533,39 @@
         <v>13</v>
       </c>
     </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" t="s">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
